--- a/Assets/StreamingAssets/Excel/DialogueJournal/Conversation_TeaMeeting_3.xlsx
+++ b/Assets/StreamingAssets/Excel/DialogueJournal/Conversation_TeaMeeting_3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
     <t>约翰逊</t>
   </si>
   <si>
-    <t>这样吧，英红九号和凤凰单枞我们各订购两千斤，都给百分之一的折扣，怎么样?</t>
+    <t>这样吧，英红九号和凤凰单枞我们各订购两千斤，都给百分之三的折扣，怎么样?</t>
   </si>
   <si>
     <t>王国信</t>
@@ -755,6 +755,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1010,7 +1017,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>

--- a/Assets/StreamingAssets/Excel/DialogueJournal/Conversation_TeaMeeting_3.xlsx
+++ b/Assets/StreamingAssets/Excel/DialogueJournal/Conversation_TeaMeeting_3.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>中文角色名</t>
   </si>
@@ -46,34 +46,61 @@
     <t>茉 莉</t>
   </si>
   <si>
+    <t>Molly</t>
+  </si>
+  <si>
+    <t>确实在质量上存在了一定的差距，不太符合我们的市场定位了，真的不能再降低一点了吗？</t>
+  </si>
+  <si>
+    <t>There is indeed a certain gap in quality, which doesn’t quite match our market positioning. Can’t we lower it a bit more?</t>
+  </si>
+  <si>
+    <t>李文俊</t>
+  </si>
+  <si>
+    <t>LiWenJun</t>
+  </si>
+  <si>
+    <t>实在抱歉，这是我们的底价，不能再低了。</t>
+  </si>
+  <si>
+    <t>I’m really sorry, this is our bottom price, and we cannot go any lower.</t>
+  </si>
+  <si>
+    <t>约翰逊</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>这样吧，英红九号和凤凰单枞我们各订购两千斤，都给百分之三的折扣，怎么样?</t>
+  </si>
+  <si>
+    <t>How about this, we order two thousand pounds each of Yinghong No. 9 and Phoenix Dancong, and you give us a 3% discount. What do you think?</t>
+  </si>
+  <si>
+    <t>王国信</t>
+  </si>
+  <si>
+    <t>WangGuoXin</t>
+  </si>
+  <si>
+    <t>行!这个价格和数量都可以接受。薄利多销嘛。</t>
+  </si>
+  <si>
+    <t>Sure! This price and quantity are acceptable. It's all about small profits but quick turnover.</t>
+  </si>
+  <si>
+    <t>选项</t>
+  </si>
+  <si>
     <t>English</t>
   </si>
   <si>
-    <t>确实在质量上存在了一定的差距，不太符合我们的市场定位了，真的不能再降低一点了吗？</t>
-  </si>
-  <si>
-    <t>李文俊</t>
-  </si>
-  <si>
-    <t>实在抱歉，这是我们的底价，不能再低了。</t>
-  </si>
-  <si>
-    <t>约翰逊</t>
-  </si>
-  <si>
-    <t>这样吧，英红九号和凤凰单枞我们各订购两千斤，都给百分之三的折扣，怎么样?</t>
-  </si>
-  <si>
-    <t>王国信</t>
-  </si>
-  <si>
-    <t>行!这个价格和数量都可以接受。薄利多销嘛。</t>
-  </si>
-  <si>
-    <t>选项</t>
-  </si>
-  <si>
     <t>进入下一模块</t>
+  </si>
+  <si>
+    <t>Enter Next Module</t>
   </si>
 </sst>
 </file>
@@ -1017,7 +1044,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
@@ -1047,63 +1074,63 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
